--- a/데이터 관계구조.xlsx
+++ b/데이터 관계구조.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\LG\Desktop\py\project\3_Company\3_BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\양태원-41\Desktop\업무\7.py\project\Company\3_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>vendor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +120,283 @@
   </si>
   <si>
     <t>vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 입고리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매입증서류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격(원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성비(EKW기준)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지증빙서류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완제품 품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 선택 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SJD-" 숫자 (자동순번)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번 (HS CODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 추가DB/ 품명끼리는 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 추가DB / 품명끼리는 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 추가DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA' 기본값 (수정가능하게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미상' 기본값 (수정가능하게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동계산 : 구매일자환율 x 단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 + '%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매입증서류 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매입증서류 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 (구매일자의 환율임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완제품 규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 품번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 품명(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 품명(국문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 규격 선택 -&gt; 나머지 자동추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 [SCD TOOL / PCD TOOL]  : 추후에 목록이 추가될수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 [원석, 기타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 종류:'원석' 만 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 종류:'기타' 만 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 규격(원석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 규격(샹크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 규격(원석)_구매일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 규격(샹크)_구매일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완제품 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택으로만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 구매처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 (출고날짜의 환율임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터는 공용 / 관계는 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BUTTON] 기본값:없음 / 사진자료 DB저장가능하게
+저장 후 -&gt; 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지증빙서류_사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매입증서류_사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BUTTON] 기본값:없음 / 사진자료 DB저장가능하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있음 / 없음 (사진 유무에 따라)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BUTTON] BOM 출력창 미리보기 / 출력 / 저장(PDF, EXCEL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +412,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +440,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +522,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -283,6 +612,575 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2057400" y="952500"/>
+          <a:ext cx="2352675" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2057400" y="1171575"/>
+          <a:ext cx="2400300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2057400" y="1352550"/>
+          <a:ext cx="2371725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6457950" y="1581150"/>
+          <a:ext cx="4162425" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6581775" y="1752600"/>
+          <a:ext cx="4114802" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="직선 화살표 연결선 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6629400" y="2209800"/>
+          <a:ext cx="3981451" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="직선 화살표 연결선 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6448425" y="1381125"/>
+          <a:ext cx="4152900" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="직선 화살표 연결선 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2095500" y="1781175"/>
+          <a:ext cx="2362200" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="직선 화살표 연결선 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2066925" y="2000250"/>
+          <a:ext cx="2343151" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="직선 화살표 연결선 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2019300" y="2181225"/>
+          <a:ext cx="2419352" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="직선 화살표 연결선 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2047875" y="2400300"/>
+          <a:ext cx="2390775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="직선 화살표 연결선 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2009775" y="2600325"/>
+          <a:ext cx="2390775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -559,18 +1457,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.8984375" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -578,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -592,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -606,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -620,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -634,7 +1532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
@@ -642,7 +1540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
@@ -650,7 +1548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
@@ -664,4 +1562,328 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="8" max="8" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/데이터 관계구조.xlsx
+++ b/데이터 관계구조.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="139">
   <si>
     <t>vendor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>current</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,34 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>material</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>income_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구매처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,118 +51,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>구매처ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>구매처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 입고리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매입증서류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격(원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성비(EKW기준)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지증빙서류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완제품 품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>구매일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매처ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vendor_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매처ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원자재 입고리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매입증서류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소요량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원산지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격(원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구성비(EKW기준)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원산지증빙서류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완제품 품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>환율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,10 +184,6 @@
   </si>
   <si>
     <t>구매입증서류 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,6 +321,266 @@
   </si>
   <si>
     <t>BOM 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품명 영문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품명 국문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXPL3012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단결정툴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXPL3012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매처 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namecode_kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namecode_eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hscode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 품명(영문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 품명(국문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehoused_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 입고리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehoused_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namecode_kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namecode_eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hscode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requried_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ekw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_doc_valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_doc_valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고리스트ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 품번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(합계) 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매입증서류 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지증명서류 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,8 +621,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,9 +750,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -552,6 +762,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,58 +812,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="직선 화살표 연결선 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1607820" y="777240"/>
-          <a:ext cx="632460" cy="220980"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1455,124 +1643,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I28"/>
+  <dimension ref="B3:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
@@ -1583,302 +1974,333 @@
     <col min="9" max="9" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9">
       <c r="H3" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="E8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" ht="33">
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="25" spans="5:9">
+      <c r="H25" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9">
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="I27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
+      <c r="E28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="4" t="s">
+    <row r="29" spans="5:9">
+      <c r="I29" t="s">
         <v>82</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/데이터 관계구조.xlsx
+++ b/데이터 관계구조.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\양태원-41\Desktop\업무\7.py\project\Company\3_BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\LG\Desktop\py\project\3_Company\3_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="192">
   <si>
     <t>vendor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,14 +582,230 @@
   </si>
   <si>
     <t>원산지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehoused_id       INTEGER PRIMARY KEY AUTOINCREMENT,</t>
+  </si>
+  <si>
+    <t>material_sn         TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>material_name       TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>namecode_kor        TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>namecode_eng        TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>material_kind       TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>hscode              TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>requried_amount     INT     NOT NULL,</t>
+  </si>
+  <si>
+    <t>unit                TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>ekw                 INT     NOT NULL,</t>
+  </si>
+  <si>
+    <t>manufacturer        TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>country_origin      TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>vendor_name         TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>buydate             TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>exchange_rate       FLOAT   NOT NULL,</t>
+  </si>
+  <si>
+    <t>price               INT     NOT NULL,</t>
+  </si>
+  <si>
+    <t>current             TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>total_price         FLOAT   NOT NULL,</t>
+  </si>
+  <si>
+    <t>document            TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>purchase_doc_valid  TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>origin_doc_valid    TEXT    NOT NULL,</t>
+  </si>
+  <si>
+    <t>vendor_id           INTEGER NOT NULL,</t>
+  </si>
+  <si>
+    <t>material_id         INTEGER NOT NULL,</t>
+  </si>
+  <si>
+    <t>str(ekw_e.get())</t>
+  </si>
+  <si>
+    <t>str(manufacturer_e.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>docOrigin_txt.cget('text')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docMaterial_txt.cget(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'text'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(material_cmb.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(namecode_kor_txt.cget('text'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(namecode_eng_txt.cget('text'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(kind_txt.cget('text'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(hscode_txt.cget('text'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(requriedAmount_e.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(unit_e.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(origin_e.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(vendorName_cmb.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(buydate_e.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float(exchangeRate_e.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(price_e.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(current_txt.get())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float(totalPrice_txt.cget('text'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str(document_txt.get())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +852,23 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -718,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +1026,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1645,18 +1891,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="5" width="11.8984375" customWidth="1"/>
+    <col min="6" max="6" width="18.8984375" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -1959,19 +2205,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" customWidth="1"/>
+    <col min="5" max="5" width="27.09765625" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="8" max="8" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.75" customWidth="1"/>
+    <col min="8" max="8" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
@@ -2172,7 +2418,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="33">
+    <row r="16" spans="2:9" ht="34.799999999999997">
       <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2308,4 +2554,277 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="59.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/데이터 관계구조.xlsx
+++ b/데이터 관계구조.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\LG\Desktop\py\project\3_Company\3_BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\양태원-41\Desktop\업무\7.py\project\Company\3_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,72 +586,6 @@
   </si>
   <si>
     <t>warehoused_id       INTEGER PRIMARY KEY AUTOINCREMENT,</t>
-  </si>
-  <si>
-    <t>material_sn         TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>material_name       TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>namecode_kor        TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>namecode_eng        TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>material_kind       TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>hscode              TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>requried_amount     INT     NOT NULL,</t>
-  </si>
-  <si>
-    <t>unit                TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>ekw                 INT     NOT NULL,</t>
-  </si>
-  <si>
-    <t>manufacturer        TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>country_origin      TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>vendor_name         TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>buydate             TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>exchange_rate       FLOAT   NOT NULL,</t>
-  </si>
-  <si>
-    <t>price               INT     NOT NULL,</t>
-  </si>
-  <si>
-    <t>current             TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>total_price         FLOAT   NOT NULL,</t>
-  </si>
-  <si>
-    <t>document            TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>purchase_doc_valid  TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>origin_doc_valid    TEXT    NOT NULL,</t>
-  </si>
-  <si>
-    <t>vendor_id           INTEGER NOT NULL,</t>
-  </si>
-  <si>
-    <t>material_id         INTEGER NOT NULL,</t>
   </si>
   <si>
     <t>str(ekw_e.get())</t>
@@ -800,11 +734,99 @@
     <t>str(document_txt.get())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>namecode_eng        TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_kind       TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hscode              TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requried_amount     INT     NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit                TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ekw                 INT     NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer        TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_origin      TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_name         TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buydate             TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_rate       FLOAT   NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price               INT     NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current             TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price         FLOAT   NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document            TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_doc_valid  TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_doc_valid    TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_id           INTEGER NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_id         INTEGER NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_sn         TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_name       TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namecode_kor        TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1895,14 +1917,14 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="5" width="11.8984375" customWidth="1"/>
-    <col min="6" max="6" width="18.8984375" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -2205,19 +2227,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" customWidth="1"/>
-    <col min="5" max="5" width="27.09765625" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="8" max="8" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.69921875" customWidth="1"/>
+    <col min="8" max="8" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
@@ -2418,7 +2440,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="34.799999999999997">
+    <row r="16" spans="2:9" ht="33">
       <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2560,19 +2582,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="59.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="25" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>139</v>
@@ -2580,245 +2602,245 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
         <v>168</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D23" s="27"/>
     </row>

--- a/데이터 관계구조.xlsx
+++ b/데이터 관계구조.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="198">
   <si>
     <t>vendor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,6 +736,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>namecode_kor        TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hscode              TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit                TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ekw                 INT     NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer        TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_origin      TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_rate       FLOAT   NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price         FLOAT   NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document            TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_doc_valid  TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor_id           INTEGER NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_sn         TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_name       TEXT    NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>namecode_eng        TEXT    NOT NULL,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -743,30 +796,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hscode              TEXT    NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>requried_amount     INT     NOT NULL,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unit                TEXT    NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ekw                 INT     NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manufacturer        TEXT    NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country_origin      TEXT    NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vendor_name         TEXT    NOT NULL,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exchange_rate       FLOAT   NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price               INT     NOT NULL,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,39 +816,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total_price         FLOAT   NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>document            TEXT    NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_doc_valid  TEXT    NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>origin_doc_valid    TEXT    NOT NULL,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vendor_id           INTEGER NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>material_id         INTEGER NOT NULL,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>material_sn         TEXT    NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_name       TEXT    NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>namecode_kor        TEXT    NOT NULL,</t>
+    <t>원자재ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매처 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자재 입고 품번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지증빙서류 유무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,6 +1087,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1620,6 +1648,199 @@
         <a:xfrm flipH="1">
           <a:off x="2009775" y="2600325"/>
           <a:ext cx="2390775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6457950" y="1581150"/>
+          <a:ext cx="4162425" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6581775" y="1752600"/>
+          <a:ext cx="4114802" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6629400" y="2209800"/>
+          <a:ext cx="3981451" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6448425" y="1381125"/>
+          <a:ext cx="4152900" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2228,7 +2449,7 @@
   <dimension ref="B3:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2582,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2605,7 +2826,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>152</v>
@@ -2616,7 +2837,7 @@
         <v>145</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>155</v>
@@ -2628,7 +2849,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>157</v>
@@ -2640,7 +2861,7 @@
         <v>146</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>156</v>
@@ -2652,7 +2873,7 @@
         <v>143</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
         <v>158</v>
@@ -2664,7 +2885,7 @@
         <v>143</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
         <v>159</v>
@@ -2676,7 +2897,7 @@
         <v>144</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
         <v>160</v>
@@ -2687,7 +2908,7 @@
         <v>147</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
         <v>161</v>
@@ -2698,7 +2919,7 @@
         <v>146</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
         <v>140</v>
@@ -2709,7 +2930,7 @@
         <v>148</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
@@ -2720,7 +2941,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
         <v>162</v>
@@ -2731,7 +2952,7 @@
         <v>146</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
         <v>163</v>
@@ -2742,7 +2963,7 @@
         <v>146</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -2753,7 +2974,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -2764,7 +2985,7 @@
         <v>149</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>166</v>
@@ -2775,7 +2996,7 @@
         <v>146</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
         <v>167</v>
@@ -2786,7 +3007,7 @@
         <v>146</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
         <v>168</v>
@@ -2797,7 +3018,7 @@
         <v>150</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>169</v>
@@ -2808,7 +3029,7 @@
         <v>151</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>154</v>
@@ -2819,7 +3040,7 @@
         <v>149</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>153</v>
@@ -2831,7 +3052,7 @@
         <v>149</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D22" s="26"/>
     </row>
@@ -2840,7 +3061,7 @@
         <v>149</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D23" s="27"/>
     </row>
@@ -2849,4 +3070,351 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="I3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="33">
+      <c r="B16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10">
+      <c r="F17" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
+      <c r="F18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10">
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10">
+      <c r="F22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10">
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10">
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10">
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10">
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10">
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10">
+      <c r="J29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/데이터 관계구조.xlsx
+++ b/데이터 관계구조.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="216">
   <si>
     <t>vendor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,11 +840,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원자재 입고 품번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원산지증빙서류 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고 리스트 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고 품번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehoused_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehoused_sn</t>
+  </si>
+  <si>
+    <t>requried_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>ekw</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>country_origin</t>
+  </si>
+  <si>
+    <t>buydate</t>
+  </si>
+  <si>
+    <t>exchange_rate</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>purchase_doc_valid</t>
+  </si>
+  <si>
+    <t>origin_doc_valid</t>
+  </si>
+  <si>
+    <t>vendor_id</t>
+  </si>
+  <si>
+    <t>material_id</t>
+  </si>
+  <si>
+    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,8 +976,35 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +1032,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,6 +1180,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1648,199 +1770,6 @@
         <a:xfrm flipH="1">
           <a:off x="2009775" y="2600325"/>
           <a:ext cx="2390775" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2047875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6457950" y="1581150"/>
-          <a:ext cx="4162425" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6581775" y="1752600"/>
-          <a:ext cx="4114802" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6629400" y="2209800"/>
-          <a:ext cx="3981451" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2038350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="직선 화살표 연결선 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6448425" y="1381125"/>
-          <a:ext cx="4152900" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3074,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J29"/>
+  <dimension ref="A3:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3088,31 +3017,38 @@
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.75" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="10" max="10" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
-      <c r="I3" s="6" t="s">
+    <row r="3" spans="1:11">
+      <c r="J3" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="B4" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -3122,299 +3058,350 @@
       <c r="E5" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="F6" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="F8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="11" t="s">
+    <row r="9" spans="1:11">
+      <c r="F9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>193</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="F11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="B12" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="B13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="F13" s="35" t="s">
         <v>26</v>
       </c>
+      <c r="G13" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="B14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="F14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="33">
+      <c r="F15" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="33">
       <c r="B16" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="F16" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="6:10">
+    <row r="17" spans="6:11">
       <c r="F17" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="6:10">
-      <c r="F18" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" t="s">
+    <row r="18" spans="6:11">
+      <c r="F18" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="J18" t="s">
         <v>71</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="6:10">
-      <c r="F21" s="1" t="s">
+    <row r="19" spans="6:11">
+      <c r="F19" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="22" spans="6:11">
+      <c r="F22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
-      <c r="F22" s="5" t="s">
+    <row r="23" spans="6:11">
+      <c r="F23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="6:10">
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>74</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="6:10">
-      <c r="I24" t="s">
+    <row r="24" spans="6:11">
+      <c r="J24" t="s">
         <v>75</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="6:10">
-      <c r="I25" t="s">
+    <row r="25" spans="6:11">
+      <c r="J25" t="s">
         <v>76</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="6:10">
-      <c r="J27" t="s">
+    <row r="27" spans="6:11">
+      <c r="K27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="6:10">
-      <c r="J28" t="s">
+    <row r="28" spans="6:11">
+      <c r="K28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="6:10">
-      <c r="J29" t="s">
+    <row r="29" spans="6:11">
+      <c r="K29" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/데이터 관계구조.xlsx
+++ b/데이터 관계구조.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="225">
   <si>
     <t>vendor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,12 +906,48 @@
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>출고날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고일 환율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고정보ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완제품 품번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM HSCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값:8207.90 - 변경될수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인보이스 통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,8 +1039,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1038,6 +1090,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,6 +1268,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,6 +1291,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2378,7 +2456,7 @@
   <dimension ref="B3:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H8" sqref="H8:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3003,32 +3081,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K29"/>
+  <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45" customWidth="1"/>
-    <col min="10" max="10" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11">
-      <c r="J3" s="6" t="s">
+    <row r="3" spans="1:12">
+      <c r="K3" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="B4" s="6" t="s">
         <v>194</v>
       </c>
@@ -3041,14 +3121,18 @@
       <c r="H4" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>41</v>
+      <c r="I4" s="32"/>
+      <c r="J4" t="s">
+        <v>193</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -3065,14 +3149,15 @@
         <v>200</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="12"/>
+      <c r="K5" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
@@ -3088,14 +3173,15 @@
       <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I6" s="12"/>
       <c r="K6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
@@ -3111,14 +3197,15 @@
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="12"/>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -3134,14 +3221,15 @@
       <c r="H8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="I8" s="40"/>
       <c r="K8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>59</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="F9" s="31" t="s">
         <v>18</v>
       </c>
@@ -3151,14 +3239,15 @@
       <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="12"/>
+      <c r="K9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="33">
       <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
@@ -3171,14 +3260,15 @@
       <c r="H10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="40"/>
+      <c r="K10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -3194,14 +3284,13 @@
       <c r="H11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" s="40"/>
+      <c r="K11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="15" t="s">
         <v>43</v>
       </c>
@@ -3217,14 +3306,13 @@
       <c r="H12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="12"/>
+      <c r="K12" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="B13" s="16" t="s">
         <v>46</v>
       </c>
@@ -3240,14 +3328,10 @@
       <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="16" t="s">
         <v>47</v>
       </c>
@@ -3263,14 +3347,15 @@
       <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" s="12"/>
+      <c r="K14" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
@@ -3286,9 +3371,15 @@
       <c r="H15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" ht="33">
+      <c r="I15" s="12"/>
+      <c r="K15" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="16" t="s">
         <v>50</v>
       </c>
@@ -3304,14 +3395,15 @@
       <c r="H16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11">
+      <c r="I16" s="12"/>
+      <c r="K16" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12">
       <c r="F17" s="11" t="s">
         <v>132</v>
       </c>
@@ -3321,8 +3413,15 @@
       <c r="H17" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="6:11">
+      <c r="I17" s="12"/>
+      <c r="K17" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12">
       <c r="F18" s="17" t="s">
         <v>6</v>
       </c>
@@ -3330,14 +3429,15 @@
         <v>213</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="J18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11">
+      <c r="I18" s="12"/>
+      <c r="K18" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12">
       <c r="F19" s="29" t="s">
         <v>95</v>
       </c>
@@ -3345,58 +3445,77 @@
         <v>214</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="22" spans="6:11">
+      <c r="I19" s="12"/>
+      <c r="K19" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="K20" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="6:12">
       <c r="F22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="6:11">
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="6:12">
       <c r="F23" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J23" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11">
-      <c r="J24" t="s">
-        <v>75</v>
-      </c>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="6:12">
       <c r="K24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="6:11">
-      <c r="J25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="6:11">
-      <c r="K27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="6:11">
-      <c r="K28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11">
-      <c r="K29" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12">
+      <c r="K27" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12">
+      <c r="J28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12">
+      <c r="K29" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12">
+      <c r="K30" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12">
+      <c r="K31" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
